--- a/AAII_Financials/Quarterly/RAHGF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RAHGF_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Quarterly/RAHGF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RAHGF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
   <si>
     <t>RAHGF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,156 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43008</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42825</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>900</v>
+      </c>
+      <c r="E8" s="3">
         <v>2600</v>
-      </c>
-      <c r="E8" s="3">
-        <v>200</v>
       </c>
       <c r="F8" s="3">
         <v>100</v>
       </c>
       <c r="G8" s="3">
+        <v>100</v>
+      </c>
+      <c r="H8" s="3">
         <v>16500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
         <v>5400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7400</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1300</v>
       </c>
       <c r="I9" s="3">
         <v>1300</v>
       </c>
       <c r="J9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K9" s="3">
         <v>1200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>900</v>
+      </c>
+      <c r="E10" s="3">
         <v>-2800</v>
       </c>
-      <c r="E10" s="3">
-        <v>-3200</v>
-      </c>
       <c r="F10" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="G10" s="3">
         <v>-3400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>9100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>6200</v>
-      </c>
-      <c r="J10" s="3">
-        <v>7500</v>
       </c>
       <c r="K10" s="3">
         <v>7500</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,8 +826,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -842,8 +856,11 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,26 +888,29 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E14" s="3">
         <v>-3300</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3">
         <v>3700</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
@@ -900,8 +920,11 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,8 +952,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +965,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="E17" s="3">
         <v>29300</v>
       </c>
-      <c r="E17" s="3">
-        <v>42200</v>
-      </c>
       <c r="F17" s="3">
+        <v>-48700</v>
+      </c>
+      <c r="G17" s="3">
         <v>52200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>69400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>18600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-26700</v>
       </c>
-      <c r="E18" s="3">
-        <v>-42000</v>
-      </c>
       <c r="F18" s="3">
+        <v>48800</v>
+      </c>
+      <c r="G18" s="3">
         <v>-52100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-52900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-15700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>5200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>6500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,8 +1043,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1025,37 +1059,40 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-500</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-900</v>
       </c>
       <c r="J20" s="3">
         <v>-900</v>
       </c>
       <c r="K20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="L20" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-26600</v>
       </c>
-      <c r="E21" s="3">
-        <v>-41900</v>
-      </c>
       <c r="F21" s="3">
+        <v>48800</v>
+      </c>
+      <c r="G21" s="3">
         <v>-52100</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1065,11 +1102,14 @@
       <c r="J21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1097,66 +1137,75 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-26600</v>
       </c>
-      <c r="E23" s="3">
-        <v>-42000</v>
-      </c>
       <c r="F23" s="3">
+        <v>48800</v>
+      </c>
+      <c r="G23" s="3">
         <v>-52200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-52000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-16200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>5500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>2800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-2400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1233,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-26800</v>
       </c>
-      <c r="E26" s="3">
-        <v>-42000</v>
-      </c>
       <c r="F26" s="3">
+        <v>48800</v>
+      </c>
+      <c r="G26" s="3">
         <v>-52200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-54800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-13800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-27100</v>
       </c>
-      <c r="E27" s="3">
-        <v>-42700</v>
-      </c>
       <c r="F27" s="3">
+        <v>48100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-52200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-55500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-14000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,37 +1329,43 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
+        <v>26800</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>-90700</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1393,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,8 +1425,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1373,51 +1443,57 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>500</v>
-      </c>
-      <c r="I32" s="3">
-        <v>900</v>
       </c>
       <c r="J32" s="3">
         <v>900</v>
       </c>
       <c r="K32" s="3">
+        <v>900</v>
+      </c>
+      <c r="L32" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>50700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-27100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-42700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-52200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-55500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-14000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1521,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>50700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-27100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-42700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-52200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-55500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-14000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43008</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42825</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1606,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,37 +1620,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,37 +1682,43 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
+        <v>3700</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+      <c r="G43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1650,37 +1746,43 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
+      <c r="E45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+        <v>26500</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1708,42 +1810,48 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E47" s="3">
         <v>54100</v>
       </c>
-      <c r="E47" s="3">
-        <v>92700</v>
-      </c>
       <c r="F47" s="3">
+        <v>159600</v>
+      </c>
+      <c r="G47" s="3">
         <v>69100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>117300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>158700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>170400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>161400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>153000</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -1755,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="H48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I48" s="3">
         <v>100</v>
@@ -1766,19 +1874,22 @@
       <c r="K48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>100</v>
+        <v>4900</v>
       </c>
       <c r="E49" s="3">
         <v>100</v>
       </c>
       <c r="F49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G49" s="3">
         <v>100</v>
@@ -1795,8 +1906,11 @@
       <c r="K49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +1938,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,37 +1970,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>8</v>
+      <c r="D52" s="3">
+        <v>15200</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
         <v>2700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,8 +2034,11 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -1920,28 +2046,31 @@
         <v>55400</v>
       </c>
       <c r="E54" s="3">
+        <v>55400</v>
+      </c>
+      <c r="F54" s="3">
         <v>95700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>70600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>119600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>163300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>174800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>166500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>159000</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2082,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,8 +2096,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1995,66 +2126,75 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>86000</v>
       </c>
-      <c r="E58" s="3">
-        <v>105000</v>
-      </c>
       <c r="F58" s="3">
+        <v>90500</v>
+      </c>
+      <c r="G58" s="3">
         <v>41800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>42700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>41700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>41100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>38800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E59" s="3">
         <v>1400</v>
       </c>
-      <c r="E59" s="3">
-        <v>1200</v>
-      </c>
       <c r="F59" s="3">
-        <v>1200</v>
+        <v>56800</v>
       </c>
       <c r="G59" s="3">
         <v>1200</v>
       </c>
       <c r="H59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I59" s="3">
         <v>500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2082,8 +2222,11 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2111,37 +2254,43 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
+        <v>2200</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="G62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2318,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2350,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,37 +2382,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E66" s="3">
         <v>108300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>122000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>55100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>52900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>47800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>47100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>45400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2430,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2460,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,37 +2492,43 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>41400</v>
+      </c>
+      <c r="E70" s="3">
         <v>10000</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>9700</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>9300</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>9000</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>8800</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>9300</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>9100</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,37 +2556,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-160900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-134000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-90500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-39200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>9800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>21500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>17000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2620,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2652,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +2684,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-62900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-36000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>57800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>106700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>118500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>112100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>104300</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2748,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43008</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42825</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>50700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-27100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-42700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-52200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-55500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-14000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,8 +2833,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2649,8 +2848,8 @@
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>8</v>
+      <c r="G83" s="3">
+        <v>0</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>8</v>
@@ -2661,11 +2860,14 @@
       <c r="J83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +2895,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +2927,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +2959,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +2991,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,23 +3023,26 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-900</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>8</v>
       </c>
@@ -2835,11 +3052,14 @@
       <c r="J89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K89" s="3">
+      <c r="K89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L89" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,16 +3071,17 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>8</v>
@@ -2877,11 +3098,14 @@
       <c r="J91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3133,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,23 +3165,26 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>69700</v>
+      </c>
+      <c r="E94" s="3">
         <v>16200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-66900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>300</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>8</v>
       </c>
@@ -2964,11 +3194,14 @@
       <c r="J94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L94" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3213,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3007,10 +3241,13 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3275,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3307,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,22 +3339,25 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-48000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-16100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>68900</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>8</v>
+      <c r="G100" s="3">
+        <v>0</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>8</v>
@@ -3122,16 +3368,19 @@
       <c r="J100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L100" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -3139,8 +3388,8 @@
       <c r="F101" s="3">
         <v>0</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>8</v>
+      <c r="G101" s="3">
+        <v>0</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>8</v>
@@ -3151,26 +3400,29 @@
       <c r="J101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3">
+      <c r="K101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-600</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>8</v>
       </c>
@@ -3180,7 +3432,10 @@
       <c r="J102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K102" s="3">
+      <c r="K102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L102" s="3">
         <v>2500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RAHGF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RAHGF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
   <si>
     <t>RAHGF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,156 +665,169 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43008</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42825</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E8" s="3">
         <v>900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2600</v>
-      </c>
-      <c r="F8" s="3">
-        <v>100</v>
       </c>
       <c r="G8" s="3">
         <v>100</v>
       </c>
       <c r="H8" s="3">
-        <v>16500</v>
-      </c>
-      <c r="I8" s="3">
+        <v>100</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="3">
         <v>2900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
+      <c r="D9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
         <v>5400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3500</v>
       </c>
-      <c r="H9" s="3">
-        <v>7400</v>
-      </c>
       <c r="I9" s="3">
-        <v>1300</v>
+        <v>3600</v>
       </c>
       <c r="J9" s="3">
         <v>1300</v>
       </c>
       <c r="K9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L9" s="3">
         <v>1200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3">
         <v>900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-2800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-3300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-3400</v>
       </c>
-      <c r="H10" s="3">
-        <v>9100</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="I10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="3">
         <v>1600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>6200</v>
-      </c>
-      <c r="K10" s="3">
-        <v>7500</v>
       </c>
       <c r="L10" s="3">
         <v>7500</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -827,8 +840,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -859,8 +873,11 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,29 +908,32 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>3300</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F14" s="3">
         <v>-3300</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
         <v>3700</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
@@ -923,8 +943,11 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -955,8 +978,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -966,72 +992,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E17" s="3">
         <v>-23400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>29300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>-48700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>52200</v>
       </c>
-      <c r="H17" s="3">
-        <v>69400</v>
-      </c>
       <c r="I17" s="3">
+        <v>43800</v>
+      </c>
+      <c r="J17" s="3">
         <v>18600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E18" s="3">
         <v>24300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-26700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>48800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-52100</v>
       </c>
-      <c r="H18" s="3">
-        <v>-52900</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="I18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="3">
         <v>-15700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>5200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1044,13 +1077,14 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1062,40 +1096,43 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>800</v>
-      </c>
-      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="3">
         <v>-500</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-900</v>
       </c>
       <c r="K20" s="3">
         <v>-900</v>
       </c>
       <c r="L20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="M20" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>100</v>
+      </c>
+      <c r="E21" s="3">
         <v>24300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-26600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>48800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-52100</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1105,11 +1142,14 @@
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1140,72 +1180,81 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
         <v>24300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-26600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>48800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-52200</v>
       </c>
-      <c r="H23" s="3">
-        <v>-52000</v>
-      </c>
       <c r="I23" s="3">
+        <v>-45700</v>
+      </c>
+      <c r="J23" s="3">
         <v>-16200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>2800</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>3500</v>
+      </c>
+      <c r="J24" s="3">
         <v>-2400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1236,72 +1285,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
         <v>24200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-26800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>48800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-52200</v>
       </c>
-      <c r="H26" s="3">
-        <v>-54800</v>
-      </c>
       <c r="I26" s="3">
+        <v>-49200</v>
+      </c>
+      <c r="J26" s="3">
         <v>-13800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
         <v>23800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-27100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>48100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-52200</v>
       </c>
-      <c r="H27" s="3">
-        <v>-55500</v>
-      </c>
       <c r="I27" s="3">
+        <v>-49300</v>
+      </c>
+      <c r="J27" s="3">
         <v>-14000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1332,23 +1390,26 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="3">
         <v>26800</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3">
         <v>-90700</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1358,14 +1419,17 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1396,8 +1460,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1428,13 +1495,16 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1446,54 +1516,60 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>-800</v>
-      </c>
-      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="3">
         <v>500</v>
-      </c>
-      <c r="J32" s="3">
-        <v>900</v>
       </c>
       <c r="K32" s="3">
         <v>900</v>
       </c>
       <c r="L32" s="3">
+        <v>900</v>
+      </c>
+      <c r="M32" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
         <v>50700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-27100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-42700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-52200</v>
       </c>
-      <c r="H33" s="3">
-        <v>-55500</v>
-      </c>
       <c r="I33" s="3">
+        <v>-49300</v>
+      </c>
+      <c r="J33" s="3">
         <v>-14000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1524,77 +1600,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
         <v>50700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-27100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-42700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-52200</v>
       </c>
-      <c r="H35" s="3">
-        <v>-55500</v>
-      </c>
       <c r="I35" s="3">
+        <v>-49300</v>
+      </c>
+      <c r="J35" s="3">
         <v>-14000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43008</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42825</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1607,8 +1692,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1621,40 +1707,44 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E41" s="3">
         <v>6900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1685,22 +1775,25 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>700</v>
+      </c>
+      <c r="E43" s="3">
         <v>3700</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>8</v>
+      <c r="F43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>8</v>
@@ -1711,14 +1804,17 @@
       <c r="J43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1749,23 +1845,26 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="3">
         <v>26500</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>8</v>
       </c>
@@ -1775,14 +1874,17 @@
       <c r="J45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1813,49 +1915,55 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="3">
         <v>14600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>54100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>159600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>69100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>117300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>158700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>170400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>161400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>153000</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>100</v>
+      </c>
+      <c r="E48" s="3">
         <v>1300</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
       <c r="F48" s="3">
         <v>0</v>
       </c>
@@ -1866,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J48" s="3">
         <v>100</v>
@@ -1877,22 +1985,25 @@
       <c r="L48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E49" s="3">
         <v>4900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>100</v>
       </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
       <c r="G49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H49" s="3">
         <v>100</v>
@@ -1909,8 +2020,11 @@
       <c r="L49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1941,8 +2055,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1973,40 +2090,46 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E52" s="3">
         <v>15200</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
         <v>2700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2037,40 +2160,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>55400</v>
+        <v>64800</v>
       </c>
       <c r="E54" s="3">
         <v>55400</v>
       </c>
       <c r="F54" s="3">
+        <v>55400</v>
+      </c>
+      <c r="G54" s="3">
         <v>95700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>70600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>119600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>163300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>174800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>166500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>159000</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2083,8 +2212,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2097,8 +2227,9 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2129,72 +2260,81 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>86000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>90500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>41800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>42700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>41700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>41100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>38800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E59" s="3">
         <v>3100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>56800</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1200</v>
       </c>
       <c r="H59" s="3">
         <v>1200</v>
       </c>
       <c r="I59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J59" s="3">
         <v>500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2225,8 +2365,11 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2257,22 +2400,25 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E62" s="3">
         <v>2200</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
+      <c r="F62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>8</v>
@@ -2283,14 +2429,17 @@
       <c r="J62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2321,8 +2470,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2353,8 +2505,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2385,40 +2540,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>31500</v>
+      </c>
+      <c r="E66" s="3">
         <v>22400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>108300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>122000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>55100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>52900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>47800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>47100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>45400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2431,8 +2592,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2463,8 +2625,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2495,40 +2660,46 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
         <v>41400</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>10000</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>9700</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>9300</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>9000</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>8800</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>9300</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>9100</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2559,40 +2730,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-11800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-160900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-134000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-90500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-39200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>9800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>21500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>17000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2623,8 +2800,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2655,8 +2835,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2687,40 +2870,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-8400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-62900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-36000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>57800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>106700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>118500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>112100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>104300</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2751,77 +2940,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43008</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42825</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
         <v>50700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-27100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-42700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-52200</v>
       </c>
-      <c r="H81" s="3">
-        <v>-55500</v>
-      </c>
       <c r="I81" s="3">
+        <v>-49300</v>
+      </c>
+      <c r="J81" s="3">
         <v>-14000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2834,13 +3032,14 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -2851,8 +3050,8 @@
       <c r="G83" s="3">
         <v>0</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>8</v>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>8</v>
@@ -2863,11 +3062,14 @@
       <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2898,8 +3100,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2930,8 +3135,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2962,8 +3170,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2994,8 +3205,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3026,26 +3240,29 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-900</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>8</v>
       </c>
@@ -3055,11 +3272,14 @@
       <c r="K89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M89" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3072,19 +3292,20 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>8</v>
@@ -3101,11 +3322,14 @@
       <c r="K91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3136,8 +3360,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3168,26 +3395,29 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E94" s="3">
         <v>69700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>16200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-66900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>300</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>8</v>
       </c>
@@ -3197,11 +3427,14 @@
       <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M94" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3214,8 +3447,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3244,10 +3478,13 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3278,8 +3515,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3310,8 +3550,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3342,25 +3585,28 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-48000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-16100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>68900</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>8</v>
+      <c r="H100" s="3">
+        <v>0</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>8</v>
@@ -3371,28 +3617,31 @@
       <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M100" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>600</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>8</v>
+      <c r="H101" s="3">
+        <v>0</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>8</v>
@@ -3403,29 +3652,32 @@
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E102" s="3">
         <v>21800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-600</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>8</v>
       </c>
@@ -3435,7 +3687,10 @@
       <c r="K102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M102" s="3">
         <v>2500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RAHGF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RAHGF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
   <si>
     <t>RAHGF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,169 +665,182 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43008</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42916</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42825</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1300</v>
+        <v>1900</v>
       </c>
       <c r="E8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F8" s="3">
         <v>900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2600</v>
-      </c>
-      <c r="G8" s="3">
-        <v>100</v>
       </c>
       <c r="H8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="I8" s="3">
+        <v>100</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="3">
         <v>2900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
+      <c r="E9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
         <v>5400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3600</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1300</v>
       </c>
       <c r="K9" s="3">
         <v>1300</v>
       </c>
       <c r="L9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M9" s="3">
         <v>1200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="3">
         <v>900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-2800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-3300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-3400</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="J10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="3">
         <v>1600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6200</v>
-      </c>
-      <c r="L10" s="3">
-        <v>7500</v>
       </c>
       <c r="M10" s="3">
         <v>7500</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -841,8 +854,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -876,8 +890,11 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -911,32 +928,35 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>3100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-3300</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>3700</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
@@ -946,8 +966,11 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -981,8 +1004,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -993,78 +1019,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="E17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F17" s="3">
         <v>-23400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>29300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>-48700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>52200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>43800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>18600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-800</v>
+        <v>1900</v>
       </c>
       <c r="E18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F18" s="3">
         <v>24300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-26700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>48800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-52100</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="3">
         <v>-15700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1078,13 +1111,14 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>300</v>
+        <v>-300</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1098,44 +1132,47 @@
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" s="3">
         <v>-500</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-900</v>
       </c>
       <c r="L20" s="3">
         <v>-900</v>
       </c>
       <c r="M20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N20" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E21" s="3">
         <v>100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>24300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-26600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>48800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-52100</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1145,11 +1182,14 @@
       <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1183,78 +1223,87 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>24300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-26600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>48800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-52200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-45700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-16200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>8</v>
+      <c r="D24" s="3">
+        <v>300</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>3500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-2400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1288,78 +1337,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>1200</v>
       </c>
       <c r="E26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F26" s="3">
         <v>24200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-26800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>48800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-52200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-49200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-13800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>900</v>
       </c>
       <c r="E27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F27" s="3">
         <v>23800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-27100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>48100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-52200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-49300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-14000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1393,26 +1451,29 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3">
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3">
         <v>26800</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3">
         <v>-90700</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1422,14 +1483,17 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1463,8 +1527,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1498,13 +1565,16 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-300</v>
+        <v>300</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1518,58 +1588,64 @@
       <c r="H32" s="3">
         <v>0</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K32" s="3">
         <v>500</v>
-      </c>
-      <c r="K32" s="3">
-        <v>900</v>
       </c>
       <c r="L32" s="3">
         <v>900</v>
       </c>
       <c r="M32" s="3">
+        <v>900</v>
+      </c>
+      <c r="N32" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>900</v>
       </c>
       <c r="E33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F33" s="3">
         <v>50700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-27100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-42700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-52200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-49300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-14000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1603,83 +1679,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>900</v>
       </c>
       <c r="E35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F35" s="3">
         <v>50700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-27100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-42700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-52200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-49300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-14000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43008</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42916</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42825</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1693,8 +1778,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1708,43 +1794,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E41" s="3">
         <v>2300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1778,25 +1868,28 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>700</v>
+        <v>7600</v>
       </c>
       <c r="E43" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F43" s="3">
         <v>3700</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>8</v>
+      <c r="G43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>8</v>
@@ -1807,14 +1900,17 @@
       <c r="K43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1824,20 +1920,20 @@
       <c r="E44" s="3">
         <v>0</v>
       </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+      <c r="F44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -1848,26 +1944,29 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G45" s="3">
+      <c r="E45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="3">
         <v>26500</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>8</v>
       </c>
@@ -1877,14 +1976,17 @@
       <c r="K45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="L45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1918,43 +2020,49 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>8</v>
+      <c r="D47" s="3">
+        <v>23800</v>
       </c>
       <c r="E47" s="3">
+        <v>21100</v>
+      </c>
+      <c r="F47" s="3">
         <v>14600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>54100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>159600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>69100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>117300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>158700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>170400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>161400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>153000</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1962,11 +2070,11 @@
         <v>100</v>
       </c>
       <c r="E48" s="3">
+        <v>100</v>
+      </c>
+      <c r="F48" s="3">
         <v>1300</v>
       </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
       <c r="G48" s="3">
         <v>0</v>
       </c>
@@ -1977,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K48" s="3">
         <v>100</v>
@@ -1988,25 +2096,28 @@
       <c r="M48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E49" s="3">
         <v>3800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>100</v>
       </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
       <c r="H49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I49" s="3">
         <v>100</v>
@@ -2023,8 +2134,11 @@
       <c r="M49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2058,8 +2172,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2093,43 +2210,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E52" s="3">
         <v>30900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>15200</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
+      <c r="G52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
         <v>2700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2163,43 +2286,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>66600</v>
+      </c>
+      <c r="E54" s="3">
         <v>64800</v>
-      </c>
-      <c r="E54" s="3">
-        <v>55400</v>
       </c>
       <c r="F54" s="3">
         <v>55400</v>
       </c>
       <c r="G54" s="3">
+        <v>55400</v>
+      </c>
+      <c r="H54" s="3">
         <v>95700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>70600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>119600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>163300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>174800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>166500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>159000</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2213,8 +2342,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2228,8 +2358,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2263,78 +2394,87 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E58" s="3">
         <v>5900</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>86000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>90500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>41800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>42700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>41700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>41100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>38800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E59" s="3">
         <v>4800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>56800</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1200</v>
       </c>
       <c r="I59" s="3">
         <v>1200</v>
       </c>
       <c r="J59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K59" s="3">
         <v>500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2368,8 +2508,11 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2403,8 +2546,11 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2412,16 +2558,16 @@
         <v>1200</v>
       </c>
       <c r="E62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F62" s="3">
         <v>2200</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
+      <c r="G62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>8</v>
@@ -2432,14 +2578,17 @@
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2473,8 +2622,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2508,8 +2660,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2543,43 +2698,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E66" s="3">
         <v>31500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>22400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>108300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>122000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>55100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>52900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>47800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>47100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>45400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2593,8 +2754,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2628,8 +2790,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2663,43 +2828,49 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>42800</v>
       </c>
       <c r="E70" s="3">
+        <v>42500</v>
+      </c>
+      <c r="F70" s="3">
         <v>41400</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>10000</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>9700</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>9300</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>9000</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>8800</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>9300</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>9100</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2733,43 +2904,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-15000</v>
+        <v>-11300</v>
       </c>
       <c r="E72" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-11800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-160900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-134000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-90500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-39200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>9800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>21500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>17000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2803,8 +2980,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2838,8 +3018,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2873,43 +3056,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>33400</v>
+        <v>-8000</v>
       </c>
       <c r="E76" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="F76" s="3">
         <v>-8400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-62900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-36000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>57800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>106700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>118500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>112100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>104300</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2943,83 +3132,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43008</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42916</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42825</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>900</v>
       </c>
       <c r="E81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F81" s="3">
         <v>50700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-27100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-42700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-52200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-49300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-14000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3033,17 +3231,18 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>600</v>
+      </c>
+      <c r="E83" s="3">
         <v>500</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
       <c r="F83" s="3">
         <v>0</v>
       </c>
@@ -3053,8 +3252,8 @@
       <c r="H83" s="3">
         <v>0</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>8</v>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>8</v>
@@ -3065,11 +3264,14 @@
       <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3103,8 +3305,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3138,8 +3343,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3173,8 +3381,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3208,8 +3419,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3243,29 +3457,32 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-8200</v>
+        <v>500</v>
       </c>
       <c r="E89" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-900</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>8</v>
       </c>
@@ -3275,11 +3492,14 @@
       <c r="L89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N89" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3293,22 +3513,23 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>8</v>
@@ -3325,11 +3546,14 @@
       <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3363,8 +3587,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3398,29 +3625,32 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>3400</v>
+        <v>-2200</v>
       </c>
       <c r="E94" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F94" s="3">
         <v>69700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>16200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-66900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>300</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>8</v>
       </c>
@@ -3430,11 +3660,14 @@
       <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N94" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3448,8 +3681,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3481,10 +3715,13 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3518,8 +3755,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3553,8 +3793,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3588,28 +3831,31 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>3000</v>
+        <v>-200</v>
       </c>
       <c r="E100" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-48000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-16100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>68900</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>8</v>
+      <c r="I100" s="3">
+        <v>0</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>8</v>
@@ -3620,31 +3866,34 @@
       <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N100" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>400</v>
+      </c>
+      <c r="E101" s="3">
         <v>600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>8</v>
+      <c r="I101" s="3">
+        <v>0</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>8</v>
@@ -3655,32 +3904,35 @@
       <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E102" s="3">
         <v>2400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>21800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-600</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>8</v>
       </c>
@@ -3690,7 +3942,10 @@
       <c r="L102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N102" s="3">
         <v>2500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RAHGF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RAHGF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
   <si>
     <t>RAHGF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,182 +665,195 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43008</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42825</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E8" s="3">
         <v>1900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2600</v>
-      </c>
-      <c r="H8" s="3">
-        <v>100</v>
       </c>
       <c r="I8" s="3">
         <v>100</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="J8" s="3">
+        <v>100</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="3">
         <v>2900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>8</v>
+      <c r="D9" s="3">
+        <v>0</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
+      <c r="F9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
         <v>5400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3600</v>
-      </c>
-      <c r="K9" s="3">
-        <v>1300</v>
       </c>
       <c r="L9" s="3">
         <v>1300</v>
       </c>
       <c r="M9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N9" s="3">
         <v>1200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
+      <c r="D10" s="3">
+        <v>2600</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="3">
         <v>900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-2800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-3300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-3400</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="K10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" s="3">
         <v>1600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6200</v>
-      </c>
-      <c r="M10" s="3">
-        <v>7500</v>
       </c>
       <c r="N10" s="3">
         <v>7500</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -855,8 +868,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -893,8 +907,11 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -931,35 +948,38 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
         <v>-500</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>3100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-3300</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>3700</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
@@ -969,8 +989,11 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1007,8 +1030,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1020,84 +1046,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
         <v>2300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>-23400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>29300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>-48700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>52200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>43800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>18600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>800</v>
+      </c>
+      <c r="E18" s="3">
         <v>1900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>24300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-26700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>48800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-52100</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L18" s="3">
         <v>-15700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1112,17 +1145,18 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-300</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1135,47 +1169,50 @@
       <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L20" s="3">
         <v>-500</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-900</v>
       </c>
       <c r="M20" s="3">
         <v>-900</v>
       </c>
       <c r="N20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="O20" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E21" s="3">
         <v>2200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>24300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-26600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>48800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-52100</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1185,11 +1222,14 @@
       <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1226,46 +1266,52 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>900</v>
+      </c>
+      <c r="E23" s="3">
         <v>1600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>24300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-26600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>48800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-52200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-45700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-16200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1273,37 +1319,40 @@
         <v>300</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>3500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-2400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1340,84 +1389,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>600</v>
+      </c>
+      <c r="E26" s="3">
         <v>1200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>24200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-26800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>48800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-52200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-49200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-13800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>300</v>
+      </c>
+      <c r="E27" s="3">
         <v>900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>23800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-27100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>48100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-52200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-49300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-14000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1454,29 +1512,32 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3">
         <v>26800</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3">
         <v>-90700</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1486,14 +1547,17 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1530,8 +1594,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1568,17 +1635,20 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>300</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -1591,61 +1661,67 @@
       <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L32" s="3">
         <v>500</v>
-      </c>
-      <c r="L32" s="3">
-        <v>900</v>
       </c>
       <c r="M32" s="3">
         <v>900</v>
       </c>
       <c r="N32" s="3">
+        <v>900</v>
+      </c>
+      <c r="O32" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>300</v>
+      </c>
+      <c r="E33" s="3">
         <v>900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>50700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-27100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-42700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-52200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-49300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-14000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1682,89 +1758,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>300</v>
+      </c>
+      <c r="E35" s="3">
         <v>900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>50700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-27100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-42700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-52200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-49300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-14000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43008</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42825</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1779,8 +1864,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1795,46 +1881,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1871,28 +1961,31 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E43" s="3">
         <v>7600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3700</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>8</v>
+      <c r="H43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>8</v>
@@ -1903,14 +1996,17 @@
       <c r="L43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1920,8 +2016,8 @@
       <c r="E44" s="3">
         <v>0</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>8</v>
+      <c r="F44" s="3">
+        <v>0</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>8</v>
@@ -1935,8 +2031,8 @@
       <c r="J44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -1947,8 +2043,11 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1958,18 +2057,18 @@
       <c r="E45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H45" s="3">
+      <c r="F45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="3">
         <v>26500</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>8</v>
       </c>
@@ -1979,14 +2078,17 @@
       <c r="L45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="M45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2023,61 +2125,67 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>26400</v>
+      </c>
+      <c r="E47" s="3">
         <v>23800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>21100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>14600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>54100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>159600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>69100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>117300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>158700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>170400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>161400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>153000</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E48" s="3">
         <v>100</v>
       </c>
       <c r="F48" s="3">
+        <v>100</v>
+      </c>
+      <c r="G48" s="3">
         <v>1300</v>
       </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
       <c r="H48" s="3">
         <v>0</v>
       </c>
@@ -2088,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="K48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L48" s="3">
         <v>100</v>
@@ -2099,28 +2207,31 @@
       <c r="N48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E49" s="3">
         <v>3400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>100</v>
       </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
       <c r="I49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J49" s="3">
         <v>100</v>
@@ -2137,8 +2248,11 @@
       <c r="N49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2175,8 +2289,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2213,46 +2330,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>26300</v>
+      </c>
+      <c r="E52" s="3">
         <v>29700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>30900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>15200</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="H52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
         <v>2700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2289,46 +2412,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>64700</v>
+      </c>
+      <c r="E54" s="3">
         <v>66600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>64800</v>
-      </c>
-      <c r="F54" s="3">
-        <v>55400</v>
       </c>
       <c r="G54" s="3">
         <v>55400</v>
       </c>
       <c r="H54" s="3">
+        <v>55400</v>
+      </c>
+      <c r="I54" s="3">
         <v>95700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>70600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>119600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>163300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>174800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>166500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>159000</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2343,8 +2472,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2359,8 +2489,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2397,84 +2528,93 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E58" s="3">
         <v>6000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5900</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>86000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>90500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>41800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>42700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>41700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>41100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>38800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E59" s="3">
         <v>4500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>56800</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1200</v>
       </c>
       <c r="J59" s="3">
         <v>1200</v>
       </c>
       <c r="K59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L59" s="3">
         <v>500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2511,8 +2651,11 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2549,28 +2692,31 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="E62" s="3">
         <v>1200</v>
       </c>
       <c r="F62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G62" s="3">
         <v>2200</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
+      <c r="H62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
@@ -2581,14 +2727,17 @@
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2625,8 +2774,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2663,8 +2815,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2701,46 +2856,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>31200</v>
+      </c>
+      <c r="E66" s="3">
         <v>31800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>31500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>22400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>108300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>122000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>55100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>52900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>47800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>47100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>45400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2755,8 +2916,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2793,8 +2955,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2831,46 +2996,52 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>43100</v>
+      </c>
+      <c r="E70" s="3">
         <v>42800</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>42500</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>41400</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>10000</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>9700</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>9300</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>9000</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>8800</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>9300</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>9100</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2907,46 +3078,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-11300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-12400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-11800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-160900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-134000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-90500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-39200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>9800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>21500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>17000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2983,8 +3160,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3021,8 +3201,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3059,46 +3242,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-8000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-9100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-8400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-62900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-36000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>57800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>106700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>118500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>112100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>104300</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3135,89 +3324,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43008</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42825</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>300</v>
+      </c>
+      <c r="E81" s="3">
         <v>900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>50700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-27100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-42700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-52200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-49300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-14000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3232,20 +3430,21 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>500</v>
+      </c>
+      <c r="E83" s="3">
         <v>600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>500</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
       <c r="G83" s="3">
         <v>0</v>
       </c>
@@ -3255,8 +3454,8 @@
       <c r="I83" s="3">
         <v>0</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3267,11 +3466,14 @@
       <c r="M83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3308,8 +3510,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3346,8 +3551,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3384,8 +3592,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3422,8 +3633,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3460,32 +3674,35 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E89" s="3">
         <v>500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>8200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-900</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>8</v>
       </c>
@@ -3495,11 +3712,14 @@
       <c r="M89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O89" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3514,8 +3734,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3525,14 +3746,14 @@
       <c r="E91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>8</v>
@@ -3549,11 +3770,14 @@
       <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3590,8 +3814,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3628,32 +3855,35 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>69700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>16200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-66900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>300</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
@@ -3663,11 +3893,14 @@
       <c r="M94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O94" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3682,8 +3915,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,10 +3952,13 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3758,8 +3995,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3796,8 +4036,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3834,31 +4077,34 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-48000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-16100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>68900</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3869,34 +4115,37 @@
       <c r="M100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O100" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E101" s="3">
         <v>400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3907,35 +4156,38 @@
       <c r="M101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>21800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-600</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>8</v>
       </c>
@@ -3945,7 +4197,10 @@
       <c r="M102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O102" s="3">
         <v>2500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RAHGF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RAHGF_QTR_FIN.xlsx
@@ -1970,7 +1970,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="E43" s="3">
         <v>7600</v>
@@ -2134,7 +2134,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>26400</v>
+        <v>26500</v>
       </c>
       <c r="E47" s="3">
         <v>23800</v>
@@ -2578,7 +2578,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5300</v>
+        <v>4600</v>
       </c>
       <c r="E59" s="3">
         <v>4500</v>

--- a/AAII_Financials/Quarterly/RAHGF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RAHGF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
   <si>
     <t>RAHGF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,195 +665,208 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3">
         <v>2600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2600</v>
-      </c>
-      <c r="I8" s="3">
-        <v>100</v>
       </c>
       <c r="J8" s="3">
         <v>100</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L8" s="3">
+      <c r="K8" s="3">
+        <v>100</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="3">
         <v>2900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>8</v>
+      <c r="E9" s="3">
+        <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
+      <c r="G9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
         <v>5400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3600</v>
-      </c>
-      <c r="L9" s="3">
-        <v>1300</v>
       </c>
       <c r="M9" s="3">
         <v>1300</v>
       </c>
       <c r="N9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O9" s="3">
         <v>1200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3">
         <v>2600</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="3">
         <v>900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-2800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-3300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-3400</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="3">
         <v>1600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6200</v>
-      </c>
-      <c r="N10" s="3">
-        <v>7500</v>
       </c>
       <c r="O10" s="3">
         <v>7500</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -869,8 +882,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -910,8 +924,11 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -951,38 +968,41 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>-500</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3">
         <v>3100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-3300</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>3700</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1012,11 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1033,8 +1056,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1047,90 +1073,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
         <v>1800</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
       <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
         <v>2300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>-23400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>29300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>-48700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>52200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>43800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>18600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
         <v>800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>24300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-26700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>48800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-52100</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M18" s="3">
         <v>-15700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1146,20 +1179,21 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1172,50 +1206,53 @@
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="3">
         <v>-500</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-900</v>
       </c>
       <c r="N20" s="3">
         <v>-900</v>
       </c>
       <c r="O20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="P20" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
         <v>1400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>24300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-26600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>48800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-52100</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1225,11 +1262,14 @@
       <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1269,90 +1309,99 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E23" s="3">
         <v>900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>24300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-26600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>48800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-52200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-45700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-16200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>300</v>
+        <v>-100</v>
       </c>
       <c r="E24" s="3">
         <v>300</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>3500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-2400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1392,90 +1441,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
         <v>600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>24200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-26800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>48800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-52200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-49200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-13800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
         <v>300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>23800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-27100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>48100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-52200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-49300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-14000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1515,32 +1573,35 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3">
         <v>26800</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3">
         <v>-90700</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1550,14 +1611,17 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1597,8 +1661,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1638,20 +1705,23 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -1664,64 +1734,70 @@
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M32" s="3">
         <v>500</v>
-      </c>
-      <c r="M32" s="3">
-        <v>900</v>
       </c>
       <c r="N32" s="3">
         <v>900</v>
       </c>
       <c r="O32" s="3">
+        <v>900</v>
+      </c>
+      <c r="P32" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
         <v>300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>50700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-27100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-42700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-52200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-49300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-14000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1761,95 +1837,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
         <v>300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>50700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-27100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-42700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-52200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-49300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-14000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1865,8 +1950,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1882,49 +1968,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>600</v>
+      </c>
+      <c r="E41" s="3">
         <v>1000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1964,31 +2054,34 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E43" s="3">
         <v>7800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>7600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3700</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>8</v>
+      <c r="I43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>8</v>
@@ -1999,14 +2092,17 @@
       <c r="M43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2019,8 +2115,8 @@
       <c r="F44" s="3">
         <v>0</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>8</v>
+      <c r="G44" s="3">
+        <v>0</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>8</v>
@@ -2034,8 +2130,8 @@
       <c r="K44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -2046,8 +2142,11 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2060,18 +2159,18 @@
       <c r="F45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I45" s="3">
+      <c r="G45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J45" s="3">
         <v>26500</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2081,14 +2180,17 @@
       <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="N45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2128,67 +2230,73 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>25500</v>
+      </c>
+      <c r="E47" s="3">
         <v>26500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>23800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>21100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>14600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>54100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>159600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>69100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>117300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>158700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>170400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>161400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>153000</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>100</v>
+      </c>
+      <c r="E48" s="3">
         <v>200</v>
-      </c>
-      <c r="E48" s="3">
-        <v>100</v>
       </c>
       <c r="F48" s="3">
         <v>100</v>
       </c>
       <c r="G48" s="3">
+        <v>100</v>
+      </c>
+      <c r="H48" s="3">
         <v>1300</v>
       </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
       <c r="I48" s="3">
         <v>0</v>
       </c>
@@ -2199,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M48" s="3">
         <v>100</v>
@@ -2210,31 +2318,34 @@
       <c r="O48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E49" s="3">
         <v>2800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>100</v>
       </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
       <c r="J49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K49" s="3">
         <v>100</v>
@@ -2251,8 +2362,11 @@
       <c r="O49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2292,8 +2406,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2333,49 +2450,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E52" s="3">
         <v>26300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>29700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>30900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>15200</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="I52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
         <v>2700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2415,49 +2538,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>56700</v>
+      </c>
+      <c r="E54" s="3">
         <v>64700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>66600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>64800</v>
-      </c>
-      <c r="G54" s="3">
-        <v>55400</v>
       </c>
       <c r="H54" s="3">
         <v>55400</v>
       </c>
       <c r="I54" s="3">
+        <v>55400</v>
+      </c>
+      <c r="J54" s="3">
         <v>95700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>70600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>119600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>163300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>174800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>166500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>159000</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2473,8 +2602,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2490,8 +2620,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2531,90 +2662,99 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>5700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5900</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>86000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>90500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>41800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>42700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>41700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>41100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>38800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E59" s="3">
         <v>4600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>56800</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1200</v>
       </c>
       <c r="K59" s="3">
         <v>1200</v>
       </c>
       <c r="L59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M59" s="3">
         <v>500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2654,8 +2794,11 @@
       <c r="O60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2695,31 +2838,34 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>500</v>
+      </c>
+      <c r="E62" s="3">
         <v>900</v>
-      </c>
-      <c r="E62" s="3">
-        <v>1200</v>
       </c>
       <c r="F62" s="3">
         <v>1200</v>
       </c>
       <c r="G62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H62" s="3">
         <v>2200</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
+      <c r="I62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
@@ -2730,14 +2876,17 @@
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2777,8 +2926,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2818,8 +2970,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2859,49 +3014,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E66" s="3">
         <v>31200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>31800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>31500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>22400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>108300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>122000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>55100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>52900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>47800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>47100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>45400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>45800</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2917,8 +3078,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2958,8 +3120,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2999,49 +3164,55 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>43500</v>
+      </c>
+      <c r="E70" s="3">
         <v>43100</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>42800</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>42500</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>41400</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>10000</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>9700</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>9300</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>9000</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>8800</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>9300</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>9100</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3081,49 +3252,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-13000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-11300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-12400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-11800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-160900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-134000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-90500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-39200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>9800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>21500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>17000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3163,8 +3340,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3204,8 +3384,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3245,49 +3428,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-9700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-8000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-9100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-8400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-62900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-36000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>57800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>106700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>118500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>112100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>104300</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3327,95 +3516,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
         <v>300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>50700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-27100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-42700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-52200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-49300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-14000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3431,23 +3629,24 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>400</v>
+      </c>
+      <c r="E83" s="3">
         <v>500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>500</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
       <c r="H83" s="3">
         <v>0</v>
       </c>
@@ -3457,8 +3656,8 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>8</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>8</v>
@@ -3469,11 +3668,14 @@
       <c r="N83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3513,8 +3715,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3554,8 +3759,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3595,8 +3803,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3636,8 +3847,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3677,35 +3891,38 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" s="3">
         <v>1400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>8200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-900</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>8</v>
       </c>
@@ -3715,11 +3932,14 @@
       <c r="N89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P89" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3735,19 +3955,20 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -3755,11 +3976,11 @@
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>8</v>
@@ -3773,11 +3994,14 @@
       <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3817,8 +4041,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3858,35 +4085,38 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>69700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>16200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-66900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>300</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
@@ -3896,11 +4126,14 @@
       <c r="N94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P94" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3916,8 +4149,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,10 +4189,13 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3998,8 +4235,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4039,8 +4279,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4080,34 +4323,37 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-48000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-16100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>68900</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>8</v>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>8</v>
@@ -4118,37 +4364,40 @@
       <c r="N100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P100" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>8</v>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>8</v>
@@ -4159,38 +4408,41 @@
       <c r="N101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O101" s="3">
+      <c r="O101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>21800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-600</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>8</v>
       </c>
@@ -4200,7 +4452,10 @@
       <c r="N102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P102" s="3">
         <v>2500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RAHGF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RAHGF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
   <si>
     <t>RAHGF</t>
   </si>
@@ -738,8 +738,8 @@
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
+      <c r="D8" s="3">
+        <v>1600</v>
       </c>
       <c r="E8" s="3">
         <v>2600</v>
@@ -826,8 +826,8 @@
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
+      <c r="D10" s="3">
+        <v>1600</v>
       </c>
       <c r="E10" s="3">
         <v>2600</v>
@@ -976,8 +976,8 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -1079,8 +1079,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>2200</v>
       </c>
       <c r="E17" s="3">
         <v>1800</v>
@@ -1123,8 +1123,8 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>-600</v>
       </c>
       <c r="E18" s="3">
         <v>800</v>
@@ -1185,8 +1185,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>-200</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
@@ -1229,8 +1229,8 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>-400</v>
       </c>
       <c r="E21" s="3">
         <v>1400</v>
@@ -1318,7 +1318,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1000</v>
+        <v>-800</v>
       </c>
       <c r="E23" s="3">
         <v>900</v>
@@ -1449,8 +1449,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>-700</v>
       </c>
       <c r="E26" s="3">
         <v>600</v>
@@ -1493,8 +1493,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>-700</v>
       </c>
       <c r="E27" s="3">
         <v>300</v>
@@ -1713,8 +1713,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>200</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
@@ -1757,8 +1757,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>-700</v>
       </c>
       <c r="E33" s="3">
         <v>300</v>
@@ -1845,8 +1845,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>-700</v>
       </c>
       <c r="E35" s="3">
         <v>300</v>
@@ -2063,7 +2063,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8400</v>
+        <v>7900</v>
       </c>
       <c r="E43" s="3">
         <v>7800</v>
@@ -2239,7 +2239,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>25500</v>
+        <v>26000</v>
       </c>
       <c r="E47" s="3">
         <v>26500</v>
@@ -2715,7 +2715,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5600</v>
+        <v>5300</v>
       </c>
       <c r="E59" s="3">
         <v>4600</v>
@@ -3573,8 +3573,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>-700</v>
       </c>
       <c r="E81" s="3">
         <v>300</v>
@@ -3899,8 +3899,8 @@
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>8</v>
+      <c r="D89" s="3">
+        <v>-800</v>
       </c>
       <c r="E89" s="3">
         <v>1400</v>
@@ -4376,7 +4376,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3100</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
         <v>-1600</v>
@@ -4420,7 +4420,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>14800</v>
+        <v>-6300</v>
       </c>
       <c r="E102" s="3">
         <v>-4300</v>
